--- a/tujigiri/Document/1.辻斬リーマン全体仕様書.xlsx
+++ b/tujigiri/Document/1.辻斬リーマン全体仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\花井先生\ワカクリ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13DFD9E-2A1A-45DE-A352-BF739DB073EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CD5684-5505-4F97-BFFF-1B4A6B3F882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{09237CA6-835C-40A4-AF39-521533240A94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{09237CA6-835C-40A4-AF39-521533240A94}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -165,92 +165,6 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>「青色の四角形」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>は表示される画面を表しています</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>アオイロ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シカクケイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アラワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>「赤色の丸形」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>は条件分岐を表しています</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>アカイロ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マル</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ジョウケンブンキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アラワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -535,12 +449,22 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>それぞれ画像を用意</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,14 +506,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="0"/>
       <name val="游ゴシック"/>
@@ -616,14 +532,6 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -773,13 +681,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -797,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -812,43 +720,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -5845,23 +5753,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B9D4C9-FC1D-4C57-988B-A8C5F74EC9B2}">
   <dimension ref="B1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0"/>
+    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="7.3125" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="3" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6"/>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
@@ -5875,32 +5783,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="33">
         <v>45965</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E6" s="33">
         <v>45965</v>
       </c>
       <c r="F6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>45</v>
-      </c>
       <c r="H6" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5914,15 +5822,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8CC09B-C806-40E6-8A84-03BCED3985DB}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.3125" customWidth="1"/>
-    <col min="2" max="2" width="8.6875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5931,200 +5841,206 @@
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14"/>
       <c r="C3" s="10"/>
       <c r="E3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="E8" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="E12" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F14" t="s">
+    <row r="17" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:7" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="F19" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F23" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F21" t="s">
+    <row r="25" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G25" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F23" s="23" t="s">
+    <row r="27" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G25" s="22" t="s">
-        <v>29</v>
+    <row r="28" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="12.4" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="30" spans="2:7" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:7" ht="12.45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:7" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
       <c r="F30" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:8" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="28"/>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="2:8" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:8" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="19"/>
       <c r="C37" s="18"/>
       <c r="F37" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="15"/>
+      <c r="F39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="15"/>
+      <c r="F40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B38" s="15"/>
-    </row>
-    <row r="39" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B39" s="15"/>
-      <c r="F39" s="1" t="s">
+    <row r="41" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15"/>
+      <c r="F42" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="15"/>
+      <c r="G44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B40" s="15"/>
-      <c r="F40" s="1" t="s">
+    <row r="45" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="15"/>
+      <c r="H45" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B41" s="15"/>
-    </row>
-    <row r="42" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B42" s="15"/>
-      <c r="F42" s="1" t="s">
+    <row r="46" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="15"/>
+      <c r="G47" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="15"/>
+      <c r="H48" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B44" s="15"/>
-      <c r="G44" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B45" s="15"/>
-      <c r="H45" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B46" s="15"/>
-    </row>
-    <row r="47" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B47" s="15"/>
-      <c r="G47" s="1" t="s">
+    <row r="49" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="2:3" s="3" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="25"/>
+      <c r="C51" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B48" s="15"/>
-      <c r="H48" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B49" s="15"/>
-    </row>
-    <row r="50" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B50" s="15"/>
-    </row>
-    <row r="51" spans="2:3" s="3" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B51" s="25"/>
-      <c r="C51" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" s="8" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="2:3" s="8" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="16"/>
       <c r="C61" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6132,16 +6048,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BEE04E-2B2F-4A97-8629-C9BC22CF8D3F}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0"/>
+    <sheetView topLeftCell="A85" zoomScale="65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="2.0625" style="11"/>
+    <col min="1" max="1" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="2.09765625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6153,102 +6069,96 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14"/>
       <c r="C3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16"/>
       <c r="C7" s="12"/>
       <c r="G7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="15"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="11"/>
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="15"/>
       <c r="C13" s="11"/>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="15"/>
       <c r="C14" s="11"/>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="15"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="15"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="15"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="15"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="15"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="15"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="15"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="2:5" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:5" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="E25" s="2" t="s">

--- a/tujigiri/Document/1.辻斬リーマン全体仕様書.xlsx
+++ b/tujigiri/Document/1.辻斬リーマン全体仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CD5684-5505-4F97-BFFF-1B4A6B3F882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F13E3D-D2A2-424D-84BD-548E04F0B066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{09237CA6-835C-40A4-AF39-521533240A94}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{09237CA6-835C-40A4-AF39-521533240A94}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -5755,21 +5755,21 @@
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="11.69921875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
-    <col min="7" max="7" width="15.3984375" customWidth="1"/>
+    <col min="5" max="5" width="11.6875" customWidth="1"/>
+    <col min="6" max="6" width="7.3125" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="3" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B1" s="6"/>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" s="33">
         <v>45965</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E6" s="33">
         <v>45965</v>
       </c>
@@ -5822,17 +5822,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8CC09B-C806-40E6-8A84-03BCED3985DB}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="7.296875" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="7.3125" customWidth="1"/>
+    <col min="2" max="2" width="8.6875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5844,195 +5842,195 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="14"/>
       <c r="C3" s="10"/>
       <c r="E3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="E8" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="E12" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="F19" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F23" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G25" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="12.45" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:7" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="30" spans="2:7" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
       <c r="F30" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B36" s="28"/>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="2:8" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B37" s="19"/>
       <c r="C37" s="18"/>
       <c r="F37" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="15"/>
       <c r="F39" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="15"/>
       <c r="F40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B42" s="15"/>
       <c r="F42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B43" s="15"/>
     </row>
-    <row r="44" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B44" s="15"/>
       <c r="G44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B45" s="15"/>
       <c r="H45" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B47" s="15"/>
       <c r="G47" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B48" s="15"/>
       <c r="H48" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="2:3" s="3" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3" s="3" customFormat="1" ht="20.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B51" s="25"/>
       <c r="C51" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="2:3" s="8" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:3" s="8" customFormat="1" ht="20.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B61" s="16"/>
       <c r="C61" s="30"/>
     </row>
@@ -6050,14 +6048,14 @@
   <sheetViews>
     <sheetView topLeftCell="A85" zoomScale="65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="2.09765625" style="11"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="2.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6069,96 +6067,96 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="14"/>
       <c r="C3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="16"/>
       <c r="C7" s="12"/>
       <c r="G7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="15"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="15"/>
       <c r="C11" s="11"/>
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="15"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="15"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="15"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="15"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="16"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="15"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="15"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="15"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="15"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="15"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B22" s="15"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B23" s="15"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B24" s="15"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="2:5" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="E25" s="2" t="s">
